--- a/Assets/Andrea Hirata_books.xlsx
+++ b/Assets/Andrea Hirata_books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project 1\Tubes Semester 1\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CF488-8D22-4D8E-9573-2F6FB42910E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5BCC0A-67F9-4CB3-AE85-EA0AF9B8A5CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
